--- a/inputdata/Scraping Input and Output Draft 1.xlsx
+++ b/inputdata/Scraping Input and Output Draft 1.xlsx
@@ -2662,7 +2662,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2684,13 +2683,11 @@
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -2698,14 +2695,12 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2862,8 +2857,8 @@
   </sheetPr>
   <dimension ref="A1:C837"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A521" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A576" activeCellId="0" sqref="A576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A356" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A379" activeCellId="0" sqref="A379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
